--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4218">
   <si>
     <t>REGISTER NO</t>
   </si>
@@ -12681,15 +12681,6 @@
   </si>
   <si>
     <t>siddharthbhaskar2022@vitbhopal.ac.in</t>
-  </si>
-  <si>
-    <t>22BAS10074</t>
-  </si>
-  <si>
-    <t>AAYUSHI DWIVEDI</t>
-  </si>
-  <si>
-    <t>aayushidwivedi2022@vitbhopal.ac.in</t>
   </si>
 </sst>
 </file>
@@ -12717,18 +12708,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13223,28 +13214,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13368,13 +13359,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13850,10 +13840,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1418"/>
+  <dimension ref="A1:C1417"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1405" workbookViewId="0">
-      <selection activeCell="C1421" sqref="C1421"/>
+      <selection activeCell="A1422" sqref="A1422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -29450,21 +29440,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="1418" customHeight="1" spans="1:3">
-      <c r="A1418" s="3" t="s">
-        <v>4218</v>
-      </c>
-      <c r="B1418" s="4" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C1418" s="5" t="s">
-        <v>4220</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1418" r:id="rId1" display="aayushidwivedi2022@vitbhopal.ac.in"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
